--- a/数据整理/stocks/A股/上证主板/603681-永冠新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603681-永冠新材.xlsx
@@ -1,168 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>005876</t>
-  </si>
-  <si>
-    <t>010487</t>
-  </si>
-  <si>
-    <t>011765</t>
-  </si>
-  <si>
-    <t>005877</t>
-  </si>
-  <si>
-    <t>011766</t>
-  </si>
-  <si>
-    <t>003501</t>
-  </si>
-  <si>
-    <t>易方达鑫转增利混合A</t>
-  </si>
-  <si>
-    <t>中银顺盈回报一年持有期混合</t>
-  </si>
-  <si>
-    <t>兴银高端制造混合A</t>
-  </si>
-  <si>
-    <t>易方达鑫转增利混合C</t>
-  </si>
-  <si>
-    <t>兴银高端制造混合C</t>
-  </si>
-  <si>
-    <t>泰达宏利睿智稳健灵活配置混合</t>
-  </si>
-  <si>
-    <t>7.28</t>
-  </si>
-  <si>
-    <t>5.30</t>
-  </si>
-  <si>
-    <t>1.83</t>
-  </si>
-  <si>
-    <t>2.86</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>27.62</t>
-  </si>
-  <si>
-    <t>23.50</t>
-  </si>
-  <si>
-    <t>94.27</t>
-  </si>
-  <si>
-    <t>86.46</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>2.47</t>
-  </si>
-  <si>
-    <t>3.52</t>
-  </si>
-  <si>
-    <t>0.0932</t>
-  </si>
-  <si>
-    <t>0.0493</t>
-  </si>
-  <si>
-    <t>0.0452</t>
-  </si>
-  <si>
-    <t>0.0366</t>
-  </si>
-  <si>
-    <t>0.0175</t>
-  </si>
-  <si>
-    <t>0.0092</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -487,193 +446,337 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603681-永冠新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603681-永冠新材.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -735,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,17 +747,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -766,13 +787,255 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3357</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603681-永冠新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603681-永冠新材.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.61</v>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1029,13 +1072,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603681-永冠新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603681-永冠新材.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4347</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1205,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3657</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.61</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -1178,13 +1311,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603681-永冠新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603681-永冠新材.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,281 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005876</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达鑫转增利混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>27.62</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0932</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010487</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中银顺盈回报一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>23.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0493</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011765</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0452</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005877</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达鑫转增利混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>27.62</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0366</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011766</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003501</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.46</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -738,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -789,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003501</t>
+          <t>110002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
+          <t>易方达策略成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.32</t>
+          <t>11.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.40</t>
+          <t>91.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3357</t>
+          <t>0.4347</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -827,150 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005876</t>
+          <t>112002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达鑫转增利混合A</t>
+          <t>易方达策略成长二号混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>9.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>26.25</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1107</t>
+          <t>0.3657</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011765</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0970</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005877</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达鑫转增利混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>26.25</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0488</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011766</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1167,36 +869,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>110002</t>
+          <t>003501</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达策略成长混合</t>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.53</t>
+          <t>13.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>73.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4347</t>
+          <t>0.3357</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1205,36 +907,150 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>112002</t>
+          <t>005876</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达策略成长二号混合</t>
+          <t>易方达鑫转增利混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>26.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3657</t>
+          <t>0.1107</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1248,96 +1064,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.25</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603681-永冠新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603681-永冠新材.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.61</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -554,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,22 +632,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.53</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>90.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4347</t>
+          <t>0.3378</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -653,26 +670,444 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>91.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3657</t>
+          <t>0.2863</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013603</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>56.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013604</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013590</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方比较优势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013166</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013591</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方比较优势混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>63.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013167</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -737,36 +1172,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011765</t>
+          <t>110002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴银高端制造混合A</t>
+          <t>易方达策略成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>11.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>91.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0263</t>
+          <t>0.4347</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -775,36 +1210,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011766</t>
+          <t>112002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴银高端制造混合C</t>
+          <t>易方达策略成长二号混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>9.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.3657</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -813,6 +1248,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1058,7 +1625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603681-永冠新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603681-永冠新材.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.61</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -566,6 +583,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3387</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2883</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>016553</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方鑫悦15个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013590</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方比较优势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013166</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013591</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方比较优势混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016554</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方鑫悦15个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013167</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1108,138 +1751,6 @@
       </c>
       <c r="H14" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>110002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达策略成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.53</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4347</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>112002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达策略成长二号混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.70</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3657</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1304,36 +1815,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011765</t>
+          <t>110002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴银高端制造混合A</t>
+          <t>易方达策略成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>11.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>91.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0263</t>
+          <t>0.4347</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1342,36 +1853,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011766</t>
+          <t>112002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴银高端制造混合C</t>
+          <t>易方达策略成长二号混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>9.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.3657</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1380,6 +1891,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1625,7 +2268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
